--- a/Grid_5x5/Solutions/Solution_NDP_S060/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S060/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.960367895610325</v>
+        <v>20.960367895610332</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2616,7 +2616,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.28577765814159534</v>
+        <v>0.28577765814159523</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.89840476190476204</v>
+        <v>0.89840476190476182</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="72">
-        <v>90.000999999999976</v>
+        <v>90.001000000000005</v>
       </c>
       <c r="N23" s="72">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>60.695000000000007</v>
       </c>
       <c r="M31" s="72">
-        <v>18.862000000000002</v>
+        <v>18.861999999999998</v>
       </c>
       <c r="N31" s="72">
         <v>70.031000000000006</v>
@@ -9164,10 +9164,10 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>45.401000000000003</v>
+        <v>45.400999999999996</v>
       </c>
       <c r="L37" s="72">
-        <v>47.77699999999998</v>
+        <v>47.776999999999987</v>
       </c>
       <c r="M37" s="72">
         <v>87.997000000000014</v>
@@ -9214,7 +9214,7 @@
         <v>80.929000000000002</v>
       </c>
       <c r="M38" s="72">
-        <v>12.248999999999999</v>
+        <v>12.249000000000001</v>
       </c>
       <c r="N38" s="72">
         <v>125.38500000000001</v>
@@ -9255,13 +9255,13 @@
         <v>7.0169999999999995</v>
       </c>
       <c r="L39" s="72">
-        <v>103.402</v>
+        <v>103.40199999999999</v>
       </c>
       <c r="M39" s="72">
-        <v>21.983000000000001</v>
+        <v>21.983000000000004</v>
       </c>
       <c r="N39" s="72">
-        <v>110.419</v>
+        <v>110.41899999999998</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -9466,7 +9466,7 @@
         <v>102.76499999999999</v>
       </c>
       <c r="M44" s="72">
-        <v>63.236999999999995</v>
+        <v>63.237000000000009</v>
       </c>
       <c r="N44" s="72">
         <v>130.34699999999998</v>
@@ -9551,13 +9551,13 @@
         <v>18.012</v>
       </c>
       <c r="L46" s="72">
-        <v>48.313000000000002</v>
+        <v>48.312999999999988</v>
       </c>
       <c r="M46" s="72">
-        <v>91.843999999999994</v>
+        <v>91.844000000000023</v>
       </c>
       <c r="N46" s="72">
-        <v>66.325000000000003</v>
+        <v>66.324999999999989</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>25.056999999999999</v>
+        <v>25.057000000000002</v>
       </c>
       <c r="L47" s="72">
         <v>54.327999999999989</v>
@@ -9636,13 +9636,13 @@
         <v>70</v>
       </c>
       <c r="K48" s="72">
-        <v>24.351999999999997</v>
+        <v>24.352</v>
       </c>
       <c r="L48" s="72">
-        <v>59.791000000000004</v>
+        <v>59.790999999999997</v>
       </c>
       <c r="M48" s="72">
-        <v>19.593999999999998</v>
+        <v>19.594000000000001</v>
       </c>
       <c r="N48" s="72">
         <v>84.143000000000001</v>
@@ -9844,16 +9844,16 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>22.289000000000001</v>
+        <v>22.288999999999998</v>
       </c>
       <c r="L53" s="72">
-        <v>104.08999999999997</v>
+        <v>104.09</v>
       </c>
       <c r="M53" s="72">
         <v>7.319</v>
       </c>
       <c r="N53" s="72">
-        <v>126.37899999999998</v>
+        <v>126.379</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9888,13 +9888,13 @@
         <v>70</v>
       </c>
       <c r="K54" s="72">
-        <v>28.839999999999996</v>
+        <v>28.84</v>
       </c>
       <c r="L54" s="72">
         <v>75.927999999999997</v>
       </c>
       <c r="M54" s="72">
-        <v>50.450999999999993</v>
+        <v>50.451000000000008</v>
       </c>
       <c r="N54" s="72">
         <v>104.768</v>
@@ -9932,16 +9932,16 @@
         <v>70</v>
       </c>
       <c r="K55" s="72">
-        <v>20.276</v>
+        <v>20.276000000000003</v>
       </c>
       <c r="L55" s="72">
-        <v>39.549000000000007</v>
+        <v>39.548999999999992</v>
       </c>
       <c r="M55" s="72">
         <v>65.218999999999994</v>
       </c>
       <c r="N55" s="72">
-        <v>59.825000000000003</v>
+        <v>59.824999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -9976,16 +9976,16 @@
         <v>70</v>
       </c>
       <c r="K56" s="72">
-        <v>23.924999999999997</v>
+        <v>23.925000000000004</v>
       </c>
       <c r="L56" s="72">
-        <v>49.13900000000001</v>
+        <v>49.138999999999989</v>
       </c>
       <c r="M56" s="72">
         <v>10.686</v>
       </c>
       <c r="N56" s="72">
-        <v>73.064000000000007</v>
+        <v>73.063999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -10026,7 +10026,7 @@
         <v>65.822999999999993</v>
       </c>
       <c r="M57" s="72">
-        <v>7.2409999999999997</v>
+        <v>7.2410000000000005</v>
       </c>
       <c r="N57" s="72">
         <v>72.456999999999994</v>
@@ -10140,7 +10140,7 @@
         <v>70</v>
       </c>
       <c r="K60" s="72">
-        <v>112.883</v>
+        <v>112.88300000000001</v>
       </c>
       <c r="L60" s="72">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="72">
-        <v>112.883</v>
+        <v>112.88300000000001</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -10184,16 +10184,16 @@
         <v>70</v>
       </c>
       <c r="K61" s="72">
-        <v>26.092999999999996</v>
+        <v>26.093000000000004</v>
       </c>
       <c r="L61" s="72">
-        <v>104.61900000000003</v>
+        <v>104.61899999999999</v>
       </c>
       <c r="M61" s="72">
         <v>8.2639999999999993</v>
       </c>
       <c r="N61" s="72">
-        <v>130.71200000000002</v>
+        <v>130.71199999999999</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -10231,13 +10231,13 @@
         <v>32.637</v>
       </c>
       <c r="L62" s="72">
-        <v>104.23600000000005</v>
+        <v>104.23599999999999</v>
       </c>
       <c r="M62" s="72">
-        <v>26.476000000000003</v>
+        <v>26.475999999999999</v>
       </c>
       <c r="N62" s="72">
-        <v>136.87300000000005</v>
+        <v>136.87299999999999</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -10319,13 +10319,13 @@
         <v>15.810000000000002</v>
       </c>
       <c r="L64" s="72">
-        <v>41.774999999999999</v>
+        <v>41.775000000000006</v>
       </c>
       <c r="M64" s="72">
-        <v>78.198999999999984</v>
+        <v>78.198999999999998</v>
       </c>
       <c r="N64" s="72">
-        <v>57.585000000000001</v>
+        <v>57.585000000000008</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -10454,7 +10454,7 @@
         <v>64.951000000000008</v>
       </c>
       <c r="M67" s="72">
-        <v>18.782000000000004</v>
+        <v>18.781999999999996</v>
       </c>
       <c r="N67" s="72">
         <v>72.501000000000005</v>
@@ -10524,7 +10524,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="72">
-        <v>89.662000000000006</v>
+        <v>89.661999999999992</v>
       </c>
       <c r="L69" s="72">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="72">
-        <v>89.662000000000006</v>
+        <v>89.661999999999992</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -10571,13 +10571,13 @@
         <v>20.100999999999999</v>
       </c>
       <c r="L70" s="72">
-        <v>81.406999999999982</v>
+        <v>81.406999999999996</v>
       </c>
       <c r="M70" s="72">
         <v>8.254999999999999</v>
       </c>
       <c r="N70" s="72">
-        <v>101.50799999999998</v>
+        <v>101.508</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>70</v>
       </c>
       <c r="K71" s="72">
-        <v>13.303000000000001</v>
+        <v>13.302999999999999</v>
       </c>
       <c r="L71" s="72">
         <v>87.705000000000013</v>
@@ -10656,13 +10656,13 @@
         <v>70</v>
       </c>
       <c r="K72" s="72">
-        <v>27.718000000000004</v>
+        <v>27.718</v>
       </c>
       <c r="L72" s="72">
         <v>78.015000000000001</v>
       </c>
       <c r="M72" s="72">
-        <v>22.993000000000002</v>
+        <v>22.992999999999999</v>
       </c>
       <c r="N72" s="72">
         <v>105.733</v>
@@ -10700,10 +10700,10 @@
         <v>70</v>
       </c>
       <c r="K73" s="72">
-        <v>31.089999999999996</v>
+        <v>31.09</v>
       </c>
       <c r="L73" s="72">
-        <v>39.483000000000011</v>
+        <v>39.483000000000004</v>
       </c>
       <c r="M73" s="72">
         <v>66.25</v>
@@ -10999,13 +10999,13 @@
         <v>30.063000000000002</v>
       </c>
       <c r="L80" s="72">
-        <v>104.68700000000003</v>
+        <v>104.687</v>
       </c>
       <c r="M80" s="72">
         <v>7.282</v>
       </c>
       <c r="N80" s="72">
-        <v>134.75000000000003</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -11040,16 +11040,16 @@
         <v>70</v>
       </c>
       <c r="K81" s="72">
-        <v>30.888000000000002</v>
+        <v>30.888000000000005</v>
       </c>
       <c r="L81" s="72">
-        <v>92.85</v>
+        <v>92.850000000000009</v>
       </c>
       <c r="M81" s="72">
         <v>41.900000000000006</v>
       </c>
       <c r="N81" s="72">
-        <v>123.738</v>
+        <v>123.73800000000001</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -11336,16 +11336,16 @@
         <v>70</v>
       </c>
       <c r="K88" s="72">
-        <v>27.081</v>
+        <v>27.081000000000003</v>
       </c>
       <c r="L88" s="72">
-        <v>109.84600000000002</v>
+        <v>109.84599999999999</v>
       </c>
       <c r="M88" s="72">
         <v>8.173</v>
       </c>
       <c r="N88" s="72">
-        <v>136.92700000000002</v>
+        <v>136.92699999999999</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -18855,13 +18855,13 @@
         <v>3.3180000000000001</v>
       </c>
       <c r="L264" s="72">
-        <v>30.167000000000005</v>
+        <v>30.166999999999998</v>
       </c>
       <c r="M264" s="72">
         <v>16.829000000000001</v>
       </c>
       <c r="N264" s="72">
-        <v>33.485000000000007</v>
+        <v>33.484999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -19151,13 +19151,13 @@
         <v>27.405000000000001</v>
       </c>
       <c r="L271" s="72">
-        <v>20.393000000000001</v>
+        <v>20.393000000000008</v>
       </c>
       <c r="M271" s="72">
         <v>46.858000000000004</v>
       </c>
       <c r="N271" s="72">
-        <v>47.798000000000002</v>
+        <v>47.798000000000009</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
@@ -19192,10 +19192,10 @@
         <v>70</v>
       </c>
       <c r="K272" s="72">
-        <v>18.965</v>
+        <v>18.964999999999996</v>
       </c>
       <c r="L272" s="72">
-        <v>39.962999999999994</v>
+        <v>39.963000000000001</v>
       </c>
       <c r="M272" s="72">
         <v>7.835</v>
@@ -19286,7 +19286,7 @@
         <v>24.145</v>
       </c>
       <c r="M274" s="72">
-        <v>19.077000000000002</v>
+        <v>19.076999999999998</v>
       </c>
       <c r="N274" s="72">
         <v>26.326000000000001</v>
@@ -19444,16 +19444,16 @@
         <v>70</v>
       </c>
       <c r="K278" s="72">
-        <v>24.062999999999999</v>
+        <v>24.063000000000002</v>
       </c>
       <c r="L278" s="72">
-        <v>33.834000000000003</v>
+        <v>33.833999999999989</v>
       </c>
       <c r="M278" s="72">
         <v>21.756999999999998</v>
       </c>
       <c r="N278" s="72">
-        <v>57.896999999999998</v>
+        <v>57.896999999999991</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -19488,16 +19488,16 @@
         <v>70</v>
       </c>
       <c r="K279" s="72">
-        <v>33.629999999999995</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="L279" s="72">
-        <v>37.535000000000025</v>
+        <v>37.534999999999989</v>
       </c>
       <c r="M279" s="72">
-        <v>20.361999999999995</v>
+        <v>20.361999999999998</v>
       </c>
       <c r="N279" s="72">
-        <v>71.16500000000002</v>
+        <v>71.164999999999992</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -19532,16 +19532,16 @@
         <v>70</v>
       </c>
       <c r="K280" s="72">
-        <v>18.138000000000005</v>
+        <v>18.138000000000002</v>
       </c>
       <c r="L280" s="72">
-        <v>20.062999999999988</v>
+        <v>20.062999999999999</v>
       </c>
       <c r="M280" s="72">
-        <v>51.102000000000004</v>
+        <v>51.101999999999997</v>
       </c>
       <c r="N280" s="72">
-        <v>38.200999999999993</v>
+        <v>38.201000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
@@ -19576,13 +19576,13 @@
         <v>70</v>
       </c>
       <c r="K281" s="72">
-        <v>15.135</v>
+        <v>15.135000000000002</v>
       </c>
       <c r="L281" s="72">
-        <v>30.621000000000002</v>
+        <v>30.620999999999999</v>
       </c>
       <c r="M281" s="72">
-        <v>7.58</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="N281" s="72">
         <v>45.756</v>
@@ -19620,16 +19620,16 @@
         <v>70</v>
       </c>
       <c r="K282" s="72">
-        <v>9.3629999999999995</v>
+        <v>9.3630000000000013</v>
       </c>
       <c r="L282" s="72">
-        <v>29.347000000000008</v>
+        <v>29.346999999999994</v>
       </c>
       <c r="M282" s="72">
         <v>16.408999999999999</v>
       </c>
       <c r="N282" s="72">
-        <v>38.710000000000008</v>
+        <v>38.709999999999994</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -19667,13 +19667,13 @@
         <v>2.0459999999999998</v>
       </c>
       <c r="L283" s="72">
-        <v>20.984999999999999</v>
+        <v>20.985000000000007</v>
       </c>
       <c r="M283" s="72">
         <v>17.725000000000001</v>
       </c>
       <c r="N283" s="72">
-        <v>23.030999999999999</v>
+        <v>23.031000000000006</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
       <c r="M284" s="72">
-        <v>23.030999999999999</v>
+        <v>23.031000000000006</v>
       </c>
       <c r="N284" s="72">
         <v>0</v>
@@ -19740,7 +19740,7 @@
         <v>70</v>
       </c>
       <c r="K285" s="72">
-        <v>14.484000000000002</v>
+        <v>14.484</v>
       </c>
       <c r="L285" s="72">
         <v>0</v>
@@ -19749,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="N285" s="72">
-        <v>14.484000000000002</v>
+        <v>14.484</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
@@ -19784,10 +19784,10 @@
         <v>70</v>
       </c>
       <c r="K286" s="72">
-        <v>17.512999999999998</v>
+        <v>17.513000000000002</v>
       </c>
       <c r="L286" s="72">
-        <v>12.887999999999998</v>
+        <v>12.887999999999995</v>
       </c>
       <c r="M286" s="72">
         <v>1.5960000000000001</v>
@@ -19831,13 +19831,13 @@
         <v>19.54</v>
       </c>
       <c r="L287" s="72">
-        <v>27.915999999999997</v>
+        <v>27.916000000000004</v>
       </c>
       <c r="M287" s="72">
         <v>2.4850000000000003</v>
       </c>
       <c r="N287" s="72">
-        <v>47.455999999999996</v>
+        <v>47.456000000000003</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
@@ -19872,10 +19872,10 @@
         <v>70</v>
       </c>
       <c r="K288" s="72">
-        <v>16.282</v>
+        <v>16.282000000000004</v>
       </c>
       <c r="L288" s="72">
-        <v>28.070000000000004</v>
+        <v>28.07</v>
       </c>
       <c r="M288" s="72">
         <v>19.385999999999999</v>
@@ -19919,13 +19919,13 @@
         <v>14.135000000000002</v>
       </c>
       <c r="L289" s="72">
-        <v>11.256000000000004</v>
+        <v>11.255999999999997</v>
       </c>
       <c r="M289" s="72">
-        <v>33.095999999999997</v>
+        <v>33.096000000000004</v>
       </c>
       <c r="N289" s="72">
-        <v>25.391000000000005</v>
+        <v>25.390999999999998</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
@@ -19963,13 +19963,13 @@
         <v>7.4740000000000002</v>
       </c>
       <c r="L290" s="72">
-        <v>19.019000000000002</v>
+        <v>19.018999999999998</v>
       </c>
       <c r="M290" s="72">
         <v>6.3719999999999999</v>
       </c>
       <c r="N290" s="72">
-        <v>26.493000000000002</v>
+        <v>26.492999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
@@ -20051,13 +20051,13 @@
         <v>1.998</v>
       </c>
       <c r="L292" s="72">
-        <v>13.776</v>
+        <v>13.776000000000002</v>
       </c>
       <c r="M292" s="72">
         <v>10.282</v>
       </c>
       <c r="N292" s="72">
-        <v>15.773999999999999</v>
+        <v>15.774000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="M293" s="72">
-        <v>15.773999999999999</v>
+        <v>15.774000000000001</v>
       </c>
       <c r="N293" s="72">
         <v>0</v>
@@ -20212,16 +20212,16 @@
         <v>70</v>
       </c>
       <c r="K296" s="72">
-        <v>26.695000000000004</v>
+        <v>26.695</v>
       </c>
       <c r="L296" s="72">
-        <v>28.924000000000003</v>
+        <v>28.923999999999999</v>
       </c>
       <c r="M296" s="72">
         <v>8.7210000000000001</v>
       </c>
       <c r="N296" s="72">
-        <v>55.619000000000007</v>
+        <v>55.619</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
@@ -20300,16 +20300,16 @@
         <v>70</v>
       </c>
       <c r="K298" s="72">
-        <v>16.486000000000001</v>
+        <v>16.485999999999997</v>
       </c>
       <c r="L298" s="72">
-        <v>16.749000000000006</v>
+        <v>16.749000000000002</v>
       </c>
       <c r="M298" s="72">
         <v>39.061000000000007</v>
       </c>
       <c r="N298" s="72">
-        <v>33.235000000000007</v>
+        <v>33.234999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -20347,13 +20347,13 @@
         <v>12.872</v>
       </c>
       <c r="L299" s="72">
-        <v>25.520000000000003</v>
+        <v>25.519999999999996</v>
       </c>
       <c r="M299" s="72">
         <v>7.7149999999999999</v>
       </c>
       <c r="N299" s="72">
-        <v>38.392000000000003</v>
+        <v>38.391999999999996</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -20599,13 +20599,13 @@
         <v>11.033999999999999</v>
       </c>
       <c r="L305" s="72">
-        <v>28.057000000000002</v>
+        <v>28.056999999999995</v>
       </c>
       <c r="M305" s="72">
-        <v>4.3529999999999998</v>
+        <v>4.3530000000000006</v>
       </c>
       <c r="N305" s="72">
-        <v>39.091000000000001</v>
+        <v>39.090999999999994</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20640,10 +20640,10 @@
         <v>70</v>
       </c>
       <c r="K306" s="72">
-        <v>16.562000000000001</v>
+        <v>16.561999999999998</v>
       </c>
       <c r="L306" s="72">
-        <v>28.609999999999996</v>
+        <v>28.61</v>
       </c>
       <c r="M306" s="72">
         <v>10.481000000000002</v>
@@ -20684,16 +20684,16 @@
         <v>70</v>
       </c>
       <c r="K307" s="72">
-        <v>24.946999999999999</v>
+        <v>24.947000000000003</v>
       </c>
       <c r="L307" s="72">
-        <v>12.572999999999997</v>
+        <v>12.573</v>
       </c>
       <c r="M307" s="72">
-        <v>32.598999999999997</v>
+        <v>32.599000000000004</v>
       </c>
       <c r="N307" s="72">
-        <v>37.519999999999996</v>
+        <v>37.520000000000003</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -20731,13 +20731,13 @@
         <v>8.5719999999999992</v>
       </c>
       <c r="L308" s="72">
-        <v>26.870999999999992</v>
+        <v>26.870999999999999</v>
       </c>
       <c r="M308" s="72">
-        <v>10.649000000000001</v>
+        <v>10.648999999999999</v>
       </c>
       <c r="N308" s="72">
-        <v>35.442999999999991</v>
+        <v>35.442999999999998</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -20892,7 +20892,7 @@
         <v>70</v>
       </c>
       <c r="K312" s="72">
-        <v>13.476000000000001</v>
+        <v>13.475999999999999</v>
       </c>
       <c r="L312" s="72">
         <v>0</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="N312" s="72">
-        <v>13.476000000000001</v>
+        <v>13.475999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -21024,16 +21024,16 @@
         <v>70</v>
       </c>
       <c r="K315" s="72">
-        <v>25.141999999999999</v>
+        <v>25.141999999999996</v>
       </c>
       <c r="L315" s="72">
-        <v>33.209999999999994</v>
+        <v>33.210000000000008</v>
       </c>
       <c r="M315" s="72">
         <v>15.498000000000001</v>
       </c>
       <c r="N315" s="72">
-        <v>58.351999999999997</v>
+        <v>58.352000000000004</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -21320,10 +21320,10 @@
         <v>70</v>
       </c>
       <c r="K322" s="72">
-        <v>25.209000000000003</v>
+        <v>25.208999999999996</v>
       </c>
       <c r="L322" s="72">
-        <v>18.727999999999994</v>
+        <v>18.728000000000002</v>
       </c>
       <c r="M322" s="72">
         <v>1.5760000000000001</v>
@@ -28578,7 +28578,7 @@
         <v>82.339999999999989</v>
       </c>
       <c r="M492" s="72">
-        <v>30.629000000000001</v>
+        <v>30.629000000000005</v>
       </c>
       <c r="N492" s="72">
         <v>137.89699999999999</v>
@@ -28619,13 +28619,13 @@
         <v>5.0570000000000004</v>
       </c>
       <c r="L493" s="72">
-        <v>41.545000000000002</v>
+        <v>41.544999999999987</v>
       </c>
       <c r="M493" s="72">
-        <v>96.352000000000004</v>
+        <v>96.35199999999999</v>
       </c>
       <c r="N493" s="72">
-        <v>46.602000000000004</v>
+        <v>46.60199999999999</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
@@ -28663,7 +28663,7 @@
         <v>0</v>
       </c>
       <c r="M494" s="72">
-        <v>46.602000000000004</v>
+        <v>46.60199999999999</v>
       </c>
       <c r="N494" s="72">
         <v>0</v>
@@ -28783,13 +28783,13 @@
         <v>34.209000000000003</v>
       </c>
       <c r="L497" s="72">
-        <v>68.253</v>
+        <v>68.252999999999986</v>
       </c>
       <c r="M497" s="72">
         <v>61.298000000000002</v>
       </c>
       <c r="N497" s="72">
-        <v>102.462</v>
+        <v>102.46199999999999</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
@@ -28827,13 +28827,13 @@
         <v>37.826999999999998</v>
       </c>
       <c r="L498" s="72">
-        <v>35.926999999999992</v>
+        <v>35.927000000000007</v>
       </c>
       <c r="M498" s="72">
         <v>66.534999999999997</v>
       </c>
       <c r="N498" s="72">
-        <v>73.753999999999991</v>
+        <v>73.754000000000005</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
@@ -28868,16 +28868,16 @@
         <v>70</v>
       </c>
       <c r="K499" s="72">
-        <v>43.263999999999996</v>
+        <v>43.264000000000003</v>
       </c>
       <c r="L499" s="72">
-        <v>53.962999999999994</v>
+        <v>53.963000000000001</v>
       </c>
       <c r="M499" s="72">
         <v>19.790999999999997</v>
       </c>
       <c r="N499" s="72">
-        <v>97.22699999999999</v>
+        <v>97.227000000000004</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
@@ -29035,13 +29035,13 @@
         <v>81.126000000000005</v>
       </c>
       <c r="L503" s="72">
-        <v>34.821999999999974</v>
+        <v>34.822000000000003</v>
       </c>
       <c r="M503" s="72">
         <v>5.024</v>
       </c>
       <c r="N503" s="72">
-        <v>115.94799999999998</v>
+        <v>115.94800000000001</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.25">
@@ -29164,16 +29164,16 @@
         <v>70</v>
       </c>
       <c r="K506" s="72">
-        <v>26.269000000000002</v>
+        <v>26.268999999999998</v>
       </c>
       <c r="L506" s="72">
-        <v>50.051000000000002</v>
+        <v>50.050999999999995</v>
       </c>
       <c r="M506" s="72">
-        <v>18.501999999999999</v>
+        <v>18.502000000000002</v>
       </c>
       <c r="N506" s="72">
-        <v>76.320000000000007</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
@@ -29214,7 +29214,7 @@
         <v>22.625</v>
       </c>
       <c r="M507" s="72">
-        <v>53.695</v>
+        <v>53.694999999999993</v>
       </c>
       <c r="N507" s="72">
         <v>27.498000000000001</v>
@@ -29284,7 +29284,7 @@
         <v>70</v>
       </c>
       <c r="K509" s="72">
-        <v>39.557999999999993</v>
+        <v>39.558</v>
       </c>
       <c r="L509" s="72">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="N509" s="72">
-        <v>39.557999999999993</v>
+        <v>39.558</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.25">
@@ -29372,16 +29372,16 @@
         <v>70</v>
       </c>
       <c r="K511" s="72">
-        <v>38.945</v>
+        <v>38.945000000000007</v>
       </c>
       <c r="L511" s="72">
-        <v>67.564999999999998</v>
+        <v>67.564999999999984</v>
       </c>
       <c r="M511" s="72">
-        <v>47.360999999999997</v>
+        <v>47.361000000000004</v>
       </c>
       <c r="N511" s="72">
-        <v>106.51</v>
+        <v>106.50999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -29416,13 +29416,13 @@
         <v>70</v>
       </c>
       <c r="K512" s="72">
-        <v>33.334000000000003</v>
+        <v>33.333999999999996</v>
       </c>
       <c r="L512" s="72">
-        <v>40.799999999999997</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="M512" s="72">
-        <v>65.709999999999994</v>
+        <v>65.710000000000008</v>
       </c>
       <c r="N512" s="72">
         <v>74.134</v>
@@ -33308,13 +33308,13 @@
         <v>70</v>
       </c>
       <c r="K604" s="72">
-        <v>60.308000000000007</v>
+        <v>60.308</v>
       </c>
       <c r="L604" s="72">
-        <v>69.048999999999992</v>
+        <v>69.049000000000007</v>
       </c>
       <c r="M604" s="72">
-        <v>28.733000000000001</v>
+        <v>28.732999999999997</v>
       </c>
       <c r="N604" s="72">
         <v>129.357</v>
@@ -33355,13 +33355,13 @@
         <v>4.819</v>
       </c>
       <c r="L605" s="72">
-        <v>38.352999999999994</v>
+        <v>38.353000000000002</v>
       </c>
       <c r="M605" s="72">
         <v>91.004000000000005</v>
       </c>
       <c r="N605" s="72">
-        <v>43.171999999999997</v>
+        <v>43.172000000000004</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.25">
@@ -33399,7 +33399,7 @@
         <v>0</v>
       </c>
       <c r="M606" s="72">
-        <v>43.171999999999997</v>
+        <v>43.172000000000004</v>
       </c>
       <c r="N606" s="72">
         <v>0</v>
@@ -33475,13 +33475,13 @@
         <v>85.869</v>
       </c>
       <c r="L608" s="72">
-        <v>35.763999999999996</v>
+        <v>35.76400000000001</v>
       </c>
       <c r="M608" s="72">
         <v>4.9909999999999997</v>
       </c>
       <c r="N608" s="72">
-        <v>121.633</v>
+        <v>121.63300000000001</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.25">
@@ -33516,10 +33516,10 @@
         <v>70</v>
       </c>
       <c r="K609" s="72">
-        <v>28.540000000000003</v>
+        <v>28.54</v>
       </c>
       <c r="L609" s="72">
-        <v>62.948999999999998</v>
+        <v>62.949000000000005</v>
       </c>
       <c r="M609" s="72">
         <v>58.683999999999997</v>
@@ -33566,7 +33566,7 @@
         <v>28.801999999999992</v>
       </c>
       <c r="M610" s="72">
-        <v>62.687000000000005</v>
+        <v>62.686999999999998</v>
       </c>
       <c r="N610" s="72">
         <v>64.528999999999996</v>
@@ -33604,16 +33604,16 @@
         <v>70</v>
       </c>
       <c r="K611" s="72">
-        <v>50.365999999999993</v>
+        <v>50.366</v>
       </c>
       <c r="L611" s="72">
-        <v>46.148000000000017</v>
+        <v>46.147999999999996</v>
       </c>
       <c r="M611" s="72">
         <v>18.381</v>
       </c>
       <c r="N611" s="72">
-        <v>96.51400000000001</v>
+        <v>96.513999999999996</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.25">
@@ -33654,7 +33654,7 @@
         <v>28.148999999999994</v>
       </c>
       <c r="M612" s="72">
-        <v>68.365000000000009</v>
+        <v>68.364999999999995</v>
       </c>
       <c r="N612" s="72">
         <v>32.858999999999995</v>
@@ -33771,13 +33771,13 @@
         <v>74.933999999999997</v>
       </c>
       <c r="L615" s="72">
-        <v>31.296000000000021</v>
+        <v>31.296000000000006</v>
       </c>
       <c r="M615" s="72">
         <v>4.9850000000000003</v>
       </c>
       <c r="N615" s="72">
-        <v>106.23000000000002</v>
+        <v>106.23</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
@@ -33815,13 +33815,13 @@
         <v>33.155000000000001</v>
       </c>
       <c r="L616" s="72">
-        <v>62.75500000000001</v>
+        <v>62.754999999999995</v>
       </c>
       <c r="M616" s="72">
         <v>43.474999999999994</v>
       </c>
       <c r="N616" s="72">
-        <v>95.910000000000011</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.25">
@@ -33900,16 +33900,16 @@
         <v>70</v>
       </c>
       <c r="K618" s="72">
-        <v>31.533000000000001</v>
+        <v>31.533000000000005</v>
       </c>
       <c r="L618" s="72">
-        <v>42.826999999999998</v>
+        <v>42.827000000000012</v>
       </c>
       <c r="M618" s="72">
         <v>17.149000000000001</v>
       </c>
       <c r="N618" s="72">
-        <v>74.36</v>
+        <v>74.360000000000014</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
@@ -33950,7 +33950,7 @@
         <v>21.689</v>
       </c>
       <c r="M619" s="72">
-        <v>52.670999999999999</v>
+        <v>52.670999999999992</v>
       </c>
       <c r="N619" s="72">
         <v>26.332999999999998</v>
@@ -34067,13 +34067,13 @@
         <v>77.165999999999997</v>
       </c>
       <c r="L622" s="72">
-        <v>32.353999999999999</v>
+        <v>32.354000000000013</v>
       </c>
       <c r="M622" s="72">
         <v>4.9600000000000009</v>
       </c>
       <c r="N622" s="72">
-        <v>109.52</v>
+        <v>109.52000000000001</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
@@ -34108,16 +34108,16 @@
         <v>70</v>
       </c>
       <c r="K623" s="72">
-        <v>30.66</v>
+        <v>30.659999999999997</v>
       </c>
       <c r="L623" s="72">
-        <v>62.313000000000017</v>
+        <v>62.312999999999988</v>
       </c>
       <c r="M623" s="72">
         <v>47.207000000000001</v>
       </c>
       <c r="N623" s="72">
-        <v>92.973000000000013</v>
+        <v>92.972999999999985</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
@@ -37780,16 +37780,16 @@
         <v>70</v>
       </c>
       <c r="K710" s="72">
-        <v>109.34799999999998</v>
+        <v>109.34800000000001</v>
       </c>
       <c r="L710" s="72">
         <v>8.4309999999999974</v>
       </c>
       <c r="M710" s="72">
-        <v>77.236999999999995</v>
+        <v>77.237000000000009</v>
       </c>
       <c r="N710" s="72">
-        <v>117.77899999999998</v>
+        <v>117.77900000000001</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.25">
@@ -37900,7 +37900,7 @@
         <v>70</v>
       </c>
       <c r="K713" s="72">
-        <v>39.277999999999999</v>
+        <v>39.278000000000006</v>
       </c>
       <c r="L713" s="72">
         <v>0</v>
@@ -37909,7 +37909,7 @@
         <v>0</v>
       </c>
       <c r="N713" s="72">
-        <v>39.277999999999999</v>
+        <v>39.278000000000006</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.25">
@@ -37947,13 +37947,13 @@
         <v>40.337000000000003</v>
       </c>
       <c r="L714" s="72">
-        <v>34.475000000000009</v>
+        <v>34.474999999999994</v>
       </c>
       <c r="M714" s="72">
         <v>4.8029999999999999</v>
       </c>
       <c r="N714" s="72">
-        <v>74.812000000000012</v>
+        <v>74.811999999999998</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.25">
@@ -37994,7 +37994,7 @@
         <v>8.320999999999998</v>
       </c>
       <c r="M715" s="72">
-        <v>66.491000000000014</v>
+        <v>66.490999999999985</v>
       </c>
       <c r="N715" s="72">
         <v>91.207999999999998</v>
@@ -38035,13 +38035,13 @@
         <v>4.5329999999999995</v>
       </c>
       <c r="L716" s="72">
-        <v>27.270000000000003</v>
+        <v>27.269999999999996</v>
       </c>
       <c r="M716" s="72">
         <v>63.938000000000002</v>
       </c>
       <c r="N716" s="72">
-        <v>31.803000000000004</v>
+        <v>31.802999999999997</v>
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.25">
@@ -38079,7 +38079,7 @@
         <v>0</v>
       </c>
       <c r="M717" s="72">
-        <v>31.803000000000004</v>
+        <v>31.802999999999997</v>
       </c>
       <c r="N717" s="72">
         <v>0</v>
@@ -38152,7 +38152,7 @@
         <v>70</v>
       </c>
       <c r="K719" s="72">
-        <v>49.029000000000011</v>
+        <v>49.028999999999996</v>
       </c>
       <c r="L719" s="72">
         <v>41.981999999999999</v>
@@ -38161,7 +38161,7 @@
         <v>4.7859999999999996</v>
       </c>
       <c r="N719" s="72">
-        <v>91.01100000000001</v>
+        <v>91.010999999999996</v>
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.25">
@@ -38196,10 +38196,10 @@
         <v>70</v>
       </c>
       <c r="K720" s="72">
-        <v>67.195000000000007</v>
+        <v>67.195000000000022</v>
       </c>
       <c r="L720" s="72">
-        <v>8.2759999999999962</v>
+        <v>8.275999999999982</v>
       </c>
       <c r="M720" s="72">
         <v>82.734999999999999</v>
@@ -38363,13 +38363,13 @@
         <v>42.882999999999996</v>
       </c>
       <c r="L724" s="72">
-        <v>37.447000000000003</v>
+        <v>37.447000000000017</v>
       </c>
       <c r="M724" s="72">
         <v>4.7050000000000001</v>
       </c>
       <c r="N724" s="72">
-        <v>80.33</v>
+        <v>80.330000000000013</v>
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.25">
@@ -40742,7 +40742,7 @@
         <v>64.050000000000011</v>
       </c>
       <c r="M781" s="72">
-        <v>132.08699999999999</v>
+        <v>132.08700000000002</v>
       </c>
       <c r="N781" s="72">
         <v>71.995000000000005</v>
@@ -40859,13 +40859,13 @@
         <v>123.655</v>
       </c>
       <c r="L784" s="72">
-        <v>51.722000000000008</v>
+        <v>51.72199999999998</v>
       </c>
       <c r="M784" s="72">
         <v>5.6890000000000001</v>
       </c>
       <c r="N784" s="72">
-        <v>175.37700000000001</v>
+        <v>175.37699999999998</v>
       </c>
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.25">
@@ -40900,16 +40900,16 @@
         <v>70</v>
       </c>
       <c r="K785" s="72">
-        <v>73.559999999999988</v>
+        <v>73.56</v>
       </c>
       <c r="L785" s="72">
         <v>14.667000000000002</v>
       </c>
       <c r="M785" s="72">
-        <v>160.71000000000004</v>
+        <v>160.70999999999998</v>
       </c>
       <c r="N785" s="72">
-        <v>88.22699999999999</v>
+        <v>88.227000000000004</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.25">
@@ -40947,13 +40947,13 @@
         <v>3.1470000000000002</v>
       </c>
       <c r="L786" s="72">
-        <v>27.393000000000001</v>
+        <v>27.393000000000008</v>
       </c>
       <c r="M786" s="72">
-        <v>60.833999999999996</v>
+        <v>60.834000000000003</v>
       </c>
       <c r="N786" s="72">
-        <v>30.54</v>
+        <v>30.540000000000006</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.25">
@@ -40991,7 +40991,7 @@
         <v>0</v>
       </c>
       <c r="M787" s="72">
-        <v>30.54</v>
+        <v>30.540000000000006</v>
       </c>
       <c r="N787" s="72">
         <v>0</v>
@@ -41020,7 +41020,7 @@
         <v>70</v>
       </c>
       <c r="K788" s="72">
-        <v>42.204000000000001</v>
+        <v>42.203999999999994</v>
       </c>
       <c r="L788" s="72">
         <v>0</v>
@@ -41029,7 +41029,7 @@
         <v>0</v>
       </c>
       <c r="N788" s="72">
-        <v>42.204000000000001</v>
+        <v>42.203999999999994</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -41108,13 +41108,13 @@
         <v>70</v>
       </c>
       <c r="K790" s="72">
-        <v>58.486000000000011</v>
+        <v>58.485999999999997</v>
       </c>
       <c r="L790" s="72">
-        <v>12.119999999999983</v>
+        <v>12.119999999999997</v>
       </c>
       <c r="M790" s="72">
-        <v>113.229</v>
+        <v>113.22900000000001</v>
       </c>
       <c r="N790" s="72">
         <v>70.605999999999995</v>
@@ -41316,13 +41316,13 @@
         <v>70</v>
       </c>
       <c r="K795" s="72">
-        <v>75.281999999999996</v>
+        <v>75.282000000000011</v>
       </c>
       <c r="L795" s="72">
-        <v>11.64200000000001</v>
+        <v>11.641999999999996</v>
       </c>
       <c r="M795" s="72">
-        <v>112.346</v>
+        <v>112.34600000000002</v>
       </c>
       <c r="N795" s="72">
         <v>86.924000000000007</v>
@@ -44155,13 +44155,13 @@
         <v>16.649999999999999</v>
       </c>
       <c r="L863" s="72">
-        <v>59.419999999999995</v>
+        <v>59.420000000000009</v>
       </c>
       <c r="M863" s="72">
-        <v>136.03399999999999</v>
+        <v>136.03400000000002</v>
       </c>
       <c r="N863" s="72">
-        <v>76.069999999999993</v>
+        <v>76.070000000000007</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.25">
@@ -44199,7 +44199,7 @@
         <v>0</v>
       </c>
       <c r="M864" s="72">
-        <v>76.069999999999993</v>
+        <v>76.070000000000007</v>
       </c>
       <c r="N864" s="72">
         <v>0</v>
@@ -44319,13 +44319,13 @@
         <v>37.637</v>
       </c>
       <c r="L867" s="72">
-        <v>84.331999999999994</v>
+        <v>84.332000000000022</v>
       </c>
       <c r="M867" s="72">
-        <v>68.61099999999999</v>
+        <v>68.611000000000004</v>
       </c>
       <c r="N867" s="72">
-        <v>121.96899999999999</v>
+        <v>121.96900000000002</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.25">
@@ -44366,7 +44366,7 @@
         <v>39.412000000000006</v>
       </c>
       <c r="M868" s="72">
-        <v>82.557000000000002</v>
+        <v>82.556999999999988</v>
       </c>
       <c r="N868" s="72">
         <v>79.846000000000004</v>
@@ -44656,7 +44656,7 @@
         <v>70</v>
       </c>
       <c r="K875" s="72">
-        <v>28.059000000000001</v>
+        <v>28.058999999999997</v>
       </c>
       <c r="L875" s="72">
         <v>35.747</v>
@@ -44700,16 +44700,16 @@
         <v>70</v>
       </c>
       <c r="K876" s="72">
-        <v>43.602999999999994</v>
+        <v>43.603000000000002</v>
       </c>
       <c r="L876" s="72">
-        <v>48.396000000000029</v>
+        <v>48.395999999999994</v>
       </c>
       <c r="M876" s="72">
         <v>15.41</v>
       </c>
       <c r="N876" s="72">
-        <v>91.999000000000024</v>
+        <v>91.998999999999995</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.25">
@@ -44864,7 +44864,7 @@
         <v>70</v>
       </c>
       <c r="K880" s="72">
-        <v>82.884999999999991</v>
+        <v>82.885000000000005</v>
       </c>
       <c r="L880" s="72">
         <v>35.707000000000008</v>
@@ -44873,7 +44873,7 @@
         <v>5.109</v>
       </c>
       <c r="N880" s="72">
-        <v>118.592</v>
+        <v>118.59200000000001</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.25">
@@ -44952,16 +44952,16 @@
         <v>70</v>
       </c>
       <c r="K882" s="72">
-        <v>20.669000000000004</v>
+        <v>20.669</v>
       </c>
       <c r="L882" s="72">
-        <v>25.772999999999989</v>
+        <v>25.773</v>
       </c>
       <c r="M882" s="72">
         <v>66.155000000000001</v>
       </c>
       <c r="N882" s="72">
-        <v>46.441999999999993</v>
+        <v>46.442</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.25">
@@ -44996,16 +44996,16 @@
         <v>70</v>
       </c>
       <c r="K883" s="72">
-        <v>40.691999999999993</v>
+        <v>40.692000000000007</v>
       </c>
       <c r="L883" s="72">
-        <v>37.442000000000021</v>
+        <v>37.441999999999979</v>
       </c>
       <c r="M883" s="72">
         <v>9</v>
       </c>
       <c r="N883" s="72">
-        <v>78.134000000000015</v>
+        <v>78.133999999999986</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.25">
@@ -45163,13 +45163,13 @@
         <v>85.004000000000005</v>
       </c>
       <c r="L887" s="72">
-        <v>37.121000000000024</v>
+        <v>37.120999999999995</v>
       </c>
       <c r="M887" s="72">
         <v>5.03</v>
       </c>
       <c r="N887" s="72">
-        <v>122.12500000000003</v>
+        <v>122.125</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.25">
@@ -49099,13 +49099,13 @@
         <v>40.887</v>
       </c>
       <c r="L980" s="72">
-        <v>47.342000000000013</v>
+        <v>47.341999999999999</v>
       </c>
       <c r="M980" s="72">
         <v>83.428000000000011</v>
       </c>
       <c r="N980" s="72">
-        <v>88.229000000000013</v>
+        <v>88.228999999999999</v>
       </c>
     </row>
     <row r="981" spans="1:14" x14ac:dyDescent="0.25">
@@ -49140,7 +49140,7 @@
         <v>70</v>
       </c>
       <c r="K981" s="72">
-        <v>36.946999999999996</v>
+        <v>36.947000000000003</v>
       </c>
       <c r="L981" s="72">
         <v>70.998999999999995</v>
@@ -49187,13 +49187,13 @@
         <v>6.4429999999999996</v>
       </c>
       <c r="L982" s="72">
-        <v>31.804999999999993</v>
+        <v>31.805</v>
       </c>
       <c r="M982" s="72">
-        <v>76.141000000000005</v>
+        <v>76.140999999999991</v>
       </c>
       <c r="N982" s="72">
-        <v>38.24799999999999</v>
+        <v>38.247999999999998</v>
       </c>
     </row>
     <row r="983" spans="1:14" x14ac:dyDescent="0.25">
@@ -49231,7 +49231,7 @@
         <v>0</v>
       </c>
       <c r="M983" s="72">
-        <v>38.24799999999999</v>
+        <v>38.247999999999998</v>
       </c>
       <c r="N983" s="72">
         <v>0</v>
@@ -49260,7 +49260,7 @@
         <v>70</v>
       </c>
       <c r="K984" s="72">
-        <v>41.257000000000005</v>
+        <v>41.256999999999998</v>
       </c>
       <c r="L984" s="72">
         <v>0</v>
@@ -49269,7 +49269,7 @@
         <v>0</v>
       </c>
       <c r="N984" s="72">
-        <v>41.257000000000005</v>
+        <v>41.256999999999998</v>
       </c>
     </row>
     <row r="985" spans="1:14" x14ac:dyDescent="0.25">
@@ -49348,16 +49348,16 @@
         <v>70</v>
       </c>
       <c r="K986" s="72">
-        <v>50.146999999999998</v>
+        <v>50.147000000000006</v>
       </c>
       <c r="L986" s="72">
-        <v>72.778999999999996</v>
+        <v>72.778999999999982</v>
       </c>
       <c r="M986" s="72">
         <v>50.096999999999994</v>
       </c>
       <c r="N986" s="72">
-        <v>122.926</v>
+        <v>122.92599999999999</v>
       </c>
     </row>
     <row r="987" spans="1:14" x14ac:dyDescent="0.25">
@@ -49392,7 +49392,7 @@
         <v>70</v>
       </c>
       <c r="K987" s="72">
-        <v>28.448999999999998</v>
+        <v>28.449000000000002</v>
       </c>
       <c r="L987" s="72">
         <v>43.650999999999996</v>
@@ -49442,7 +49442,7 @@
         <v>55.828000000000017</v>
       </c>
       <c r="M988" s="72">
-        <v>16.271999999999998</v>
+        <v>16.272000000000002</v>
       </c>
       <c r="N988" s="72">
         <v>90.51600000000002</v>
@@ -49644,7 +49644,7 @@
         <v>70</v>
       </c>
       <c r="K993" s="72">
-        <v>27.559000000000001</v>
+        <v>27.559000000000005</v>
       </c>
       <c r="L993" s="72">
         <v>70.72</v>
@@ -49694,7 +49694,7 @@
         <v>31.478999999999996</v>
       </c>
       <c r="M994" s="72">
-        <v>66.800000000000011</v>
+        <v>66.8</v>
       </c>
       <c r="N994" s="72">
         <v>52.254999999999995</v>
@@ -49896,16 +49896,16 @@
         <v>70</v>
       </c>
       <c r="K999" s="72">
-        <v>78.931000000000012</v>
+        <v>78.930999999999997</v>
       </c>
       <c r="L999" s="72">
-        <v>33.558999999999983</v>
+        <v>33.559000000000012</v>
       </c>
       <c r="M999" s="72">
         <v>4.8759999999999994</v>
       </c>
       <c r="N999" s="72">
-        <v>112.49</v>
+        <v>112.49000000000001</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
@@ -53668,10 +53668,10 @@
         <v>70</v>
       </c>
       <c r="K1088" s="72">
-        <v>68.944999999999993</v>
+        <v>68.945000000000007</v>
       </c>
       <c r="L1088" s="72">
-        <v>104.74200000000002</v>
+        <v>104.742</v>
       </c>
       <c r="M1088" s="72">
         <v>16.109000000000002</v>
@@ -53715,13 +53715,13 @@
         <v>12.895</v>
       </c>
       <c r="L1089" s="72">
-        <v>78.007000000000019</v>
+        <v>78.006999999999991</v>
       </c>
       <c r="M1089" s="72">
-        <v>95.679999999999993</v>
+        <v>95.68</v>
       </c>
       <c r="N1089" s="72">
-        <v>90.902000000000015</v>
+        <v>90.901999999999987</v>
       </c>
     </row>
     <row r="1090" spans="1:14" x14ac:dyDescent="0.25">
@@ -53759,7 +53759,7 @@
         <v>0</v>
       </c>
       <c r="M1090" s="72">
-        <v>90.902000000000015</v>
+        <v>90.901999999999987</v>
       </c>
       <c r="N1090" s="72">
         <v>0</v>
@@ -53832,16 +53832,16 @@
         <v>70</v>
       </c>
       <c r="K1092" s="72">
-        <v>61.932000000000002</v>
+        <v>61.931999999999995</v>
       </c>
       <c r="L1092" s="72">
-        <v>50.637000000000015</v>
+        <v>50.636999999999993</v>
       </c>
       <c r="M1092" s="72">
         <v>4.8689999999999998</v>
       </c>
       <c r="N1092" s="72">
-        <v>112.56900000000002</v>
+        <v>112.56899999999999</v>
       </c>
     </row>
     <row r="1093" spans="1:14" x14ac:dyDescent="0.25">
@@ -53876,16 +53876,16 @@
         <v>70</v>
       </c>
       <c r="K1093" s="72">
-        <v>14.743000000000002</v>
+        <v>14.743</v>
       </c>
       <c r="L1093" s="72">
-        <v>86.246000000000009</v>
+        <v>86.245999999999995</v>
       </c>
       <c r="M1093" s="72">
         <v>26.323</v>
       </c>
       <c r="N1093" s="72">
-        <v>100.989</v>
+        <v>100.98899999999999</v>
       </c>
     </row>
     <row r="1094" spans="1:14" x14ac:dyDescent="0.25">
@@ -53970,7 +53970,7 @@
         <v>30.727999999999994</v>
       </c>
       <c r="M1095" s="72">
-        <v>71.545999999999992</v>
+        <v>71.546000000000006</v>
       </c>
       <c r="N1095" s="72">
         <v>62.870999999999995</v>
@@ -54008,16 +54008,16 @@
         <v>70</v>
       </c>
       <c r="K1096" s="72">
-        <v>26.31</v>
+        <v>26.310000000000002</v>
       </c>
       <c r="L1096" s="72">
-        <v>53.466999999999985</v>
+        <v>53.467000000000013</v>
       </c>
       <c r="M1096" s="72">
         <v>9.4039999999999999</v>
       </c>
       <c r="N1096" s="72">
-        <v>79.776999999999987</v>
+        <v>79.777000000000015</v>
       </c>
     </row>
     <row r="1097" spans="1:14" x14ac:dyDescent="0.25">
@@ -54058,10 +54058,10 @@
         <v>64.799000000000007</v>
       </c>
       <c r="M1097" s="72">
-        <v>14.978</v>
+        <v>14.978000000000002</v>
       </c>
       <c r="N1097" s="72">
-        <v>90.991000000000014</v>
+        <v>90.991</v>
       </c>
     </row>
     <row r="1098" spans="1:14" x14ac:dyDescent="0.25">
@@ -54099,13 +54099,13 @@
         <v>4.9220000000000006</v>
       </c>
       <c r="L1098" s="72">
-        <v>40.88900000000001</v>
+        <v>40.888999999999996</v>
       </c>
       <c r="M1098" s="72">
-        <v>50.101999999999997</v>
+        <v>50.102000000000004</v>
       </c>
       <c r="N1098" s="72">
-        <v>45.811000000000007</v>
+        <v>45.810999999999993</v>
       </c>
     </row>
     <row r="1099" spans="1:14" x14ac:dyDescent="0.25">
@@ -54143,7 +54143,7 @@
         <v>0</v>
       </c>
       <c r="M1099" s="72">
-        <v>45.811000000000007</v>
+        <v>45.810999999999993</v>
       </c>
       <c r="N1099" s="72">
         <v>0</v>
@@ -54172,7 +54172,7 @@
         <v>70</v>
       </c>
       <c r="K1100" s="72">
-        <v>55.656999999999996</v>
+        <v>55.657000000000004</v>
       </c>
       <c r="L1100" s="72">
         <v>0</v>
@@ -54181,7 +54181,7 @@
         <v>0</v>
       </c>
       <c r="N1100" s="72">
-        <v>55.656999999999996</v>
+        <v>55.657000000000004</v>
       </c>
     </row>
     <row r="1101" spans="1:14" x14ac:dyDescent="0.25">
@@ -54216,10 +54216,10 @@
         <v>70</v>
       </c>
       <c r="K1101" s="72">
-        <v>61.579000000000008</v>
+        <v>61.579000000000001</v>
       </c>
       <c r="L1101" s="72">
-        <v>50.965000000000003</v>
+        <v>50.965000000000011</v>
       </c>
       <c r="M1101" s="72">
         <v>4.6920000000000002</v>
@@ -54310,7 +54310,7 @@
         <v>65.693000000000012</v>
       </c>
       <c r="M1103" s="72">
-        <v>32.290999999999997</v>
+        <v>32.291000000000004</v>
       </c>
       <c r="N1103" s="72">
         <v>97.317000000000007</v>
@@ -54354,7 +54354,7 @@
         <v>28.491</v>
       </c>
       <c r="M1104" s="72">
-        <v>68.825999999999993</v>
+        <v>68.826000000000008</v>
       </c>
       <c r="N1104" s="72">
         <v>47.863</v>
@@ -54395,13 +54395,13 @@
         <v>22.6</v>
       </c>
       <c r="L1105" s="72">
-        <v>38.494</v>
+        <v>38.493999999999993</v>
       </c>
       <c r="M1105" s="72">
         <v>9.3689999999999998</v>
       </c>
       <c r="N1105" s="72">
-        <v>61.094000000000001</v>
+        <v>61.093999999999994</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.25">
@@ -57892,13 +57892,13 @@
         <v>70</v>
       </c>
       <c r="K1187" s="72">
-        <v>34.946000000000005</v>
+        <v>34.945999999999998</v>
       </c>
       <c r="L1187" s="72">
         <v>119.114</v>
       </c>
       <c r="M1187" s="72">
-        <v>17.516999999999996</v>
+        <v>17.516999999999999</v>
       </c>
       <c r="N1187" s="72">
         <v>154.06</v>
@@ -57939,13 +57939,13 @@
         <v>12.55</v>
       </c>
       <c r="L1188" s="72">
-        <v>68.060999999999993</v>
+        <v>68.061000000000007</v>
       </c>
       <c r="M1188" s="72">
-        <v>85.999000000000024</v>
+        <v>85.998999999999995</v>
       </c>
       <c r="N1188" s="72">
-        <v>80.61099999999999</v>
+        <v>80.611000000000004</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57983,7 +57983,7 @@
         <v>0</v>
       </c>
       <c r="M1189" s="72">
-        <v>80.61099999999999</v>
+        <v>80.611000000000004</v>
       </c>
       <c r="N1189" s="72">
         <v>0</v>
@@ -58056,10 +58056,10 @@
         <v>70</v>
       </c>
       <c r="K1191" s="72">
-        <v>56.897999999999996</v>
+        <v>56.898000000000003</v>
       </c>
       <c r="L1191" s="72">
-        <v>45.192999999999998</v>
+        <v>45.192999999999991</v>
       </c>
       <c r="M1191" s="72">
         <v>4.6319999999999997</v>
@@ -58106,7 +58106,7 @@
         <v>84.443000000000012</v>
       </c>
       <c r="M1192" s="72">
-        <v>17.648</v>
+        <v>17.648000000000003</v>
       </c>
       <c r="N1192" s="72">
         <v>103.51600000000002</v>
@@ -58144,16 +58144,16 @@
         <v>70</v>
       </c>
       <c r="K1193" s="72">
-        <v>35.359000000000009</v>
+        <v>35.359000000000002</v>
       </c>
       <c r="L1193" s="72">
-        <v>74.066999999999993</v>
+        <v>74.066999999999979</v>
       </c>
       <c r="M1193" s="72">
-        <v>29.448999999999998</v>
+        <v>29.449000000000002</v>
       </c>
       <c r="N1193" s="72">
-        <v>109.426</v>
+        <v>109.42599999999999</v>
       </c>
     </row>
     <row r="1194" spans="1:14" x14ac:dyDescent="0.25">
@@ -58235,13 +58235,13 @@
         <v>25.198999999999998</v>
       </c>
       <c r="L1195" s="72">
-        <v>54.660000000000011</v>
+        <v>54.659999999999982</v>
       </c>
       <c r="M1195" s="72">
         <v>10.193999999999999</v>
       </c>
       <c r="N1195" s="72">
-        <v>79.859000000000009</v>
+        <v>79.85899999999998</v>
       </c>
     </row>
     <row r="1196" spans="1:14" x14ac:dyDescent="0.25">
@@ -58279,13 +58279,13 @@
         <v>13.064</v>
       </c>
       <c r="L1196" s="72">
-        <v>63.083000000000006</v>
+        <v>63.082999999999991</v>
       </c>
       <c r="M1196" s="72">
-        <v>16.776</v>
+        <v>16.775999999999996</v>
       </c>
       <c r="N1196" s="72">
-        <v>76.147000000000006</v>
+        <v>76.146999999999991</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
@@ -58326,10 +58326,10 @@
         <v>33.561999999999998</v>
       </c>
       <c r="M1197" s="72">
-        <v>42.585000000000008</v>
+        <v>42.584999999999994</v>
       </c>
       <c r="N1197" s="72">
-        <v>38.346999999999994</v>
+        <v>38.347000000000001</v>
       </c>
     </row>
     <row r="1198" spans="1:14" x14ac:dyDescent="0.25">
@@ -58367,7 +58367,7 @@
         <v>0</v>
       </c>
       <c r="M1198" s="72">
-        <v>38.346999999999994</v>
+        <v>38.347000000000001</v>
       </c>
       <c r="N1198" s="72">
         <v>0</v>
@@ -58440,10 +58440,10 @@
         <v>70</v>
       </c>
       <c r="K1200" s="72">
-        <v>60.284999999999997</v>
+        <v>60.285000000000004</v>
       </c>
       <c r="L1200" s="72">
-        <v>48.333000000000013</v>
+        <v>48.333000000000006</v>
       </c>
       <c r="M1200" s="72">
         <v>4.4619999999999997</v>
@@ -58484,10 +58484,10 @@
         <v>70</v>
       </c>
       <c r="K1201" s="72">
-        <v>27.180999999999997</v>
+        <v>27.181000000000004</v>
       </c>
       <c r="L1201" s="72">
-        <v>86.159000000000006</v>
+        <v>86.158999999999992</v>
       </c>
       <c r="M1201" s="72">
         <v>22.459</v>
@@ -58528,13 +58528,13 @@
         <v>70</v>
       </c>
       <c r="K1202" s="72">
-        <v>34.943000000000012</v>
+        <v>34.942999999999998</v>
       </c>
       <c r="L1202" s="72">
-        <v>76.403999999999996</v>
+        <v>76.404000000000011</v>
       </c>
       <c r="M1202" s="72">
-        <v>36.936000000000007</v>
+        <v>36.936</v>
       </c>
       <c r="N1202" s="72">
         <v>111.34700000000001</v>
@@ -58572,16 +58572,16 @@
         <v>70</v>
       </c>
       <c r="K1203" s="72">
-        <v>20.820999999999998</v>
+        <v>20.821000000000002</v>
       </c>
       <c r="L1203" s="72">
-        <v>37.328000000000003</v>
+        <v>37.327999999999989</v>
       </c>
       <c r="M1203" s="72">
         <v>74.019000000000005</v>
       </c>
       <c r="N1203" s="72">
-        <v>58.149000000000001</v>
+        <v>58.148999999999994</v>
       </c>
     </row>
     <row r="1204" spans="1:14" x14ac:dyDescent="0.25">
@@ -58616,10 +58616,10 @@
         <v>70</v>
       </c>
       <c r="K1204" s="72">
-        <v>25.141999999999999</v>
+        <v>25.142000000000003</v>
       </c>
       <c r="L1204" s="72">
-        <v>48</v>
+        <v>47.999999999999993</v>
       </c>
       <c r="M1204" s="72">
         <v>10.149000000000001</v>
@@ -64603,13 +64603,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000017</v>
+        <v>258.13925</v>
       </c>
       <c r="H6" s="72">
         <v>350</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73754071428571477</v>
+        <v>0.73754071428571433</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -64719,13 +64719,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44325000000015</v>
+        <v>296.44324999999986</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571475</v>
+        <v>0.84698071428571386</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -64748,13 +64748,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000007</v>
+        <v>76.064000000000021</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571432</v>
+        <v>0.21732571428571434</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -64835,13 +64835,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000015</v>
+        <v>80.989750000000001</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.57849821428571435</v>
+        <v>0.57849821428571424</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -64893,13 +64893,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61850000000015</v>
+        <v>418.61850000000004</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775539</v>
+        <v>0.85432346938775516</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -64922,13 +64922,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18150000000006</v>
+        <v>156.18150000000003</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204094</v>
+        <v>0.31873775510204089</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -64951,13 +64951,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000006</v>
+        <v>40.899999999999991</v>
       </c>
       <c r="H18" s="72">
         <v>140</v>
       </c>
       <c r="I18" s="76">
-        <v>0.2921428571428572</v>
+        <v>0.29214285714285709</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -64980,13 +64980,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378</v>
+        <v>50.378000000000007</v>
       </c>
       <c r="H19" s="72">
         <v>140</v>
       </c>
       <c r="I19" s="76">
-        <v>0.35984285714285713</v>
+        <v>0.35984285714285719</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -65125,13 +65125,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999994</v>
+        <v>61.135750000000023</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761905</v>
+        <v>0.29112261904761916</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -65154,13 +65154,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000004</v>
+        <v>43.853499999999983</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.2088261904761905</v>
+        <v>0.20882619047619039</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -65241,13 +65241,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>178.53650000000013</v>
+        <v>178.53649999999996</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.85017380952381016</v>
+        <v>0.85017380952380939</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -65270,13 +65270,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.28975000000001</v>
+        <v>126.28974999999997</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.60137976190476194</v>
+        <v>0.60137976190476172</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -65386,13 +65386,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43350000000007</v>
+        <v>175.43349999999998</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761933</v>
+        <v>0.835397619047619</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -65415,13 +65415,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.85199999999963</v>
+        <v>724.85199999999929</v>
       </c>
       <c r="H34" s="72">
         <v>910</v>
       </c>
       <c r="I34" s="76">
-        <v>0.79654065934065899</v>
+        <v>0.79654065934065854</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -65444,13 +65444,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.21774999999991</v>
+        <v>304.21774999999974</v>
       </c>
       <c r="H35" s="72">
         <v>910</v>
       </c>
       <c r="I35" s="76">
-        <v>0.33430521978021971</v>
+        <v>0.33430521978021949</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -65473,13 +65473,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743500000000004</v>
+        <v>43.743499999999997</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.20830238095238096</v>
+        <v>0.20830238095238093</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -65647,13 +65647,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.46250000000002</v>
+        <v>64.462499999999963</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.3069642857142858</v>
+        <v>0.30696428571428552</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -65676,13 +65676,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313250000000011</v>
+        <v>38.313249999999996</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.18244404761904767</v>
+        <v>0.18244404761904759</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -65763,13 +65763,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>124.24325000000007</v>
+        <v>124.24325</v>
       </c>
       <c r="H46" s="72">
         <v>210</v>
       </c>
       <c r="I46" s="76">
-        <v>0.59163452380952419</v>
+        <v>0.59163452380952386</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -65792,13 +65792,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>114.32925000000003</v>
+        <v>114.3292500000001</v>
       </c>
       <c r="H47" s="72">
         <v>210</v>
       </c>
       <c r="I47" s="76">
-        <v>0.54442500000000016</v>
+        <v>0.54442500000000049</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -65879,13 +65879,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49675000000002</v>
+        <v>124.49675000000009</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666671</v>
+        <v>0.59284166666666716</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -65908,13 +65908,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66500000000002</v>
+        <v>188.66499999999999</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476204</v>
+        <v>0.89840476190476182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -65937,13 +65937,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38475000000022</v>
+        <v>413.38474999999977</v>
       </c>
       <c r="H52" s="72">
         <v>910</v>
       </c>
       <c r="I52" s="76">
-        <v>0.45426895604395628</v>
+        <v>0.45426895604395578</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -65966,13 +65966,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06875000000025</v>
+        <v>525.06874999999957</v>
       </c>
       <c r="H53" s="72">
         <v>910</v>
       </c>
       <c r="I53" s="76">
-        <v>0.57699862637362664</v>
+        <v>0.57699862637362587</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -65995,13 +65995,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000021</v>
+        <v>43.967249999999986</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285724</v>
+        <v>0.20936785714285708</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -66024,13 +66024,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000026</v>
+        <v>63.393750000000011</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.30187500000000012</v>
+        <v>0.30187500000000006</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -66169,13 +66169,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991</v>
+        <v>62.991000000000028</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.29995714285714287</v>
+        <v>0.29995714285714298</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -66198,13 +66198,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.273749999999993</v>
+        <v>42.273749999999964</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.20130357142857139</v>
+        <v>0.20130357142857125</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -66285,13 +66285,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>183.98975000000007</v>
+        <v>183.98975000000002</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.87614166666666704</v>
+        <v>0.87614166666666671</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -66401,13 +66401,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22175000000001</v>
+        <v>128.2217500000001</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476193</v>
+        <v>0.61057976190476237</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -66430,13 +66430,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96599999999995</v>
+        <v>166.96599999999989</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619027</v>
+        <v>0.79507619047618994</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -66459,13 +66459,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18925000000007</v>
+        <v>263.18925000000013</v>
       </c>
       <c r="H70" s="72">
         <v>490</v>
       </c>
       <c r="I70" s="76">
-        <v>0.5371209183673471</v>
+        <v>0.53712091836734721</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -66488,13 +66488,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.71574999999987</v>
+        <v>219.71574999999996</v>
       </c>
       <c r="H71" s="72">
         <v>490</v>
       </c>
       <c r="I71" s="76">
-        <v>0.44839948979591809</v>
+        <v>0.44839948979591826</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -66546,7 +66546,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000004</v>
+        <v>56.678000000000011</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
@@ -66691,13 +66691,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>140</v>
       </c>
       <c r="I78" s="76">
-        <v>0.38912678571428577</v>
+        <v>0.38912678571428572</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -66749,13 +66749,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01475000000001</v>
+        <v>110.01474999999998</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.7858196428571429</v>
+        <v>0.78581964285714268</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -66778,13 +66778,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000003</v>
+        <v>71.546750000000017</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571434</v>
+        <v>0.51104821428571445</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -66807,13 +66807,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999993</v>
+        <v>192.11725000000001</v>
       </c>
       <c r="H82" s="72">
         <v>350</v>
       </c>
       <c r="I82" s="76">
-        <v>0.54890642857142835</v>
+        <v>0.54890642857142857</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -66836,13 +66836,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000046</v>
+        <v>86.186750000000004</v>
       </c>
       <c r="H83" s="72">
         <v>350</v>
       </c>
       <c r="I83" s="76">
-        <v>0.24624785714285727</v>
+        <v>0.24624785714285716</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -66865,13 +66865,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999997</v>
+        <v>168.25124999999994</v>
       </c>
       <c r="H84" s="72">
         <v>350</v>
       </c>
       <c r="I84" s="76">
-        <v>0.48071785714285709</v>
+        <v>0.48071785714285697</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
